--- a/docs/requirements/Requirements Detailing References/ID-Authentication/Sprint 9/Consolidated error messages V2.1.xlsx
+++ b/docs/requirements/Requirements Detailing References/ID-Authentication/Sprint 9/Consolidated error messages V2.1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Project\error message\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIPRequirementsGithub\docs\requirements\Requirements Detailing References\ID-Authentication\Sprint 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{ED622F41-D43F-40DA-A23F-88E62901C82C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8132F9E2-FE25-4A6A-859F-3DDD8538CEE9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">IDA!$A$1:$F$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">IDA!$A$1:$F$67</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="301">
   <si>
     <t>IDA-MLC-003</t>
   </si>
@@ -920,9 +920,6 @@
   </si>
   <si>
     <t>All Authentication Usages not allowed as per policy</t>
-  </si>
-  <si>
-    <t>"&lt;Auth Type&gt; - &lt;Sub Type&gt; (if applicable) Authentiation Usage not allowed as per policy" (Eg: OTP/Demo/Bio - FMR)</t>
   </si>
   <si>
     <t>"MISP and Partner not mapped"</t>
@@ -1160,12 +1157,30 @@
   <si>
     <t>Could not process request/Unknown error; Invalid Auth Request; Failure in Decryption</t>
   </si>
+  <si>
+    <t>PartnerID is not mapped to a policy</t>
+  </si>
+  <si>
+    <t>"&lt;Auth Type&gt; - &lt;Sub Type&gt; (if applicable) Authentiation Usage is mandatory as per policy" (Eg: OTP/Demo/Bio - FMR)</t>
+  </si>
+  <si>
+    <t>Mandatory Auth Type as per policy of the partner is not available in the auth request</t>
+  </si>
+  <si>
+    <t>"Partner is not assigned with any policy"</t>
+  </si>
+  <si>
+    <t>IDA-MPA-015</t>
+  </si>
+  <si>
+    <t>"&lt;Auth Type&gt; - &lt;Sub Type&gt; (if applicable) Authentication Usage not allowed as per policy" (Eg: OTP/Demo/Bio - FMR)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1278,6 +1293,13 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1375,7 +1397,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1432,6 +1454,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1780,17 +1805,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="28.5" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" customWidth="1"/>
     <col min="4" max="4" width="48.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="19.7109375" collapsed="1"/>
     <col min="7" max="7" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1807,14 +1834,14 @@
       <c r="D1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="24" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1909,7 +1936,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>25</v>
@@ -2027,7 +2054,7 @@
         <v>48</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -2058,7 +2085,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>149</v>
@@ -2084,7 +2111,7 @@
         <v>242</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>51</v>
@@ -2105,7 +2132,7 @@
         <v>144</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>56</v>
@@ -2144,7 +2171,7 @@
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G18" s="12"/>
     </row>
@@ -2164,7 +2191,7 @@
         <v>60</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H19" s="8"/>
     </row>
@@ -2179,13 +2206,13 @@
         <v>244</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>52</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G20" s="12"/>
     </row>
@@ -2194,10 +2221,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>279</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>280</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>67</v>
@@ -2224,7 +2251,7 @@
         <v>71</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>72</v>
@@ -2239,7 +2266,7 @@
         <v>73</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>74</v>
@@ -2260,7 +2287,7 @@
         <v>76</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -2291,7 +2318,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>81</v>
@@ -2351,7 +2378,7 @@
         <v>118</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>91</v>
@@ -2417,13 +2444,13 @@
         <v>101</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>102</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>103</v>
@@ -2459,7 +2486,7 @@
         <v>108</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
@@ -2481,7 +2508,7 @@
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G36" s="12"/>
     </row>
@@ -2498,7 +2525,7 @@
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
       <c r="F37" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G37" s="18">
         <v>2</v>
@@ -2577,10 +2604,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C42" s="14" t="s">
         <v>289</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>290</v>
       </c>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
@@ -2617,7 +2644,7 @@
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G44" s="12"/>
     </row>
@@ -2634,7 +2661,7 @@
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G45" s="12"/>
     </row>
@@ -2646,7 +2673,7 @@
         <v>121</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>122</v>
@@ -2684,10 +2711,10 @@
         <v>131</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>63</v>
@@ -2722,7 +2749,7 @@
         <v>139</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
@@ -2765,7 +2792,7 @@
       </c>
       <c r="G52" s="12"/>
     </row>
-    <row r="53" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>52</v>
       </c>
@@ -2843,7 +2870,7 @@
       </c>
       <c r="G56" s="12"/>
     </row>
-    <row r="57" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>56</v>
       </c>
@@ -2851,7 +2878,7 @@
         <v>260</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
@@ -2881,10 +2908,10 @@
       <c r="A59" s="10">
         <v>58</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="16" t="s">
         <v>230</v>
       </c>
       <c r="D59" s="11"/>
@@ -2898,10 +2925,10 @@
       <c r="A60" s="10">
         <v>59</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="16" t="s">
         <v>232</v>
       </c>
       <c r="D60" s="11"/>
@@ -2915,11 +2942,11 @@
       <c r="A61" s="10">
         <v>60</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="C61" s="11" t="s">
-        <v>262</v>
+      <c r="C61" s="16" t="s">
+        <v>261</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
@@ -2932,10 +2959,10 @@
       <c r="A62" s="10">
         <v>61</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="16" t="s">
         <v>235</v>
       </c>
       <c r="D62" s="11"/>
@@ -2949,11 +2976,11 @@
       <c r="A63" s="10">
         <v>62</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="C63" s="11" t="s">
-        <v>263</v>
+      <c r="C63" s="16" t="s">
+        <v>262</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
@@ -2984,10 +3011,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="C65" s="11" t="s">
         <v>291</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>292</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
@@ -2996,8 +3023,49 @@
       </c>
       <c r="G65" s="7"/>
     </row>
+    <row r="66" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="10">
+        <v>63</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="G66" s="12"/>
+    </row>
+    <row r="67" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="10">
+        <v>64</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="G67" s="12"/>
+    </row>
+    <row r="71" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="76" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C76" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F65" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:F67" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="5">
       <filters>
         <filter val="IDA-MPA-001"/>
@@ -3014,6 +3082,7 @@
         <filter val="IDA-MPA-012"/>
         <filter val="IDA-MPA-013"/>
         <filter val="IDA-MPA-014"/>
+        <filter val="IDA-MPA-015"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/docs/requirements/Requirements Detailing References/ID-Authentication/Sprint 9/Consolidated error messages V2.1.xlsx
+++ b/docs/requirements/Requirements Detailing References/ID-Authentication/Sprint 9/Consolidated error messages V2.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIPRequirementsGithub\docs\requirements\Requirements Detailing References\ID-Authentication\Sprint 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8132F9E2-FE25-4A6A-859F-3DDD8538CEE9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7AE3939F-2B94-4268-8FA2-7032875923D3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="304">
   <si>
     <t>IDA-MLC-003</t>
   </si>
@@ -1174,6 +1174,15 @@
   </si>
   <si>
     <t>"&lt;Auth Type&gt; - &lt;Sub Type&gt; (if applicable) Authentication Usage not allowed as per policy" (Eg: OTP/Demo/Bio - FMR)</t>
+  </si>
+  <si>
+    <t>HMAC value does not match</t>
+  </si>
+  <si>
+    <t>IDA-MPA-016</t>
+  </si>
+  <si>
+    <t>"HMAC Validation failed"</t>
   </si>
 </sst>
 </file>
@@ -1808,7 +1817,7 @@
   <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+      <selection activeCell="B68" sqref="B68:F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="28.5" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -3056,6 +3065,23 @@
         <v>299</v>
       </c>
       <c r="G67" s="12"/>
+    </row>
+    <row r="68" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="10">
+        <v>65</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="G68" s="12"/>
     </row>
     <row r="71" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C71" s="1"/>

--- a/docs/requirements/Requirements Detailing References/ID-Authentication/Sprint 9/Consolidated error messages V2.1.xlsx
+++ b/docs/requirements/Requirements Detailing References/ID-Authentication/Sprint 9/Consolidated error messages V2.1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIPRequirementsGithub\docs\requirements\Requirements Detailing References\ID-Authentication\Sprint 9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Project\User stories\Authenticatoin_New Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7AE3939F-2B94-4268-8FA2-7032875923D3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{738609DD-A2F0-42E7-96D5-DA03AA193729}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">IDA!$A$1:$F$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">IDA!$A$1:$F$69</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="307">
   <si>
     <t>IDA-MLC-003</t>
   </si>
@@ -1183,6 +1183,15 @@
   </si>
   <si>
     <t>"HMAC Validation failed"</t>
+  </si>
+  <si>
+    <t>IDA-OTA-010</t>
+  </si>
+  <si>
+    <t>No OTP Channel is provided in the input</t>
+  </si>
+  <si>
+    <t>"OTP Notification Channel not provided."</t>
   </si>
 </sst>
 </file>
@@ -1348,7 +1357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1399,6 +1408,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1406,7 +1426,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1467,6 +1487,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1814,10 +1837,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68:F68"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="28.5" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1937,7 +1960,7 @@
       </c>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1958,7 +1981,7 @@
       </c>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -1979,7 +2002,7 @@
       </c>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -1996,7 +2019,7 @@
       </c>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -2013,7 +2036,7 @@
       </c>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -2034,7 +2057,7 @@
       </c>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -2055,7 +2078,7 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -2487,7 +2510,7 @@
       </c>
       <c r="G34" s="12"/>
     </row>
-    <row r="35" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>34</v>
       </c>
@@ -2540,7 +2563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>37</v>
       </c>
@@ -2557,7 +2580,7 @@
       </c>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>38</v>
       </c>
@@ -2574,7 +2597,7 @@
       </c>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>39</v>
       </c>
@@ -2591,7 +2614,7 @@
       </c>
       <c r="G40" s="12"/>
     </row>
-    <row r="41" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>40</v>
       </c>
@@ -2640,7 +2663,7 @@
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
     </row>
-    <row r="44" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>43</v>
       </c>
@@ -2657,7 +2680,7 @@
       </c>
       <c r="G44" s="12"/>
     </row>
-    <row r="45" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>44</v>
       </c>
@@ -2822,7 +2845,7 @@
       </c>
       <c r="G53" s="12"/>
     </row>
-    <row r="54" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>53</v>
       </c>
@@ -2841,7 +2864,7 @@
       </c>
       <c r="G54" s="12"/>
     </row>
-    <row r="55" spans="1:7" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" s="8" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>54</v>
       </c>
@@ -2862,7 +2885,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>55</v>
       </c>
@@ -2879,7 +2902,7 @@
       </c>
       <c r="G56" s="12"/>
     </row>
-    <row r="57" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>56</v>
       </c>
@@ -2896,7 +2919,7 @@
       </c>
       <c r="G57" s="12"/>
     </row>
-    <row r="58" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>57</v>
       </c>
@@ -2913,7 +2936,7 @@
       </c>
       <c r="G58" s="12"/>
     </row>
-    <row r="59" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
         <v>58</v>
       </c>
@@ -2930,7 +2953,7 @@
       </c>
       <c r="G59" s="12"/>
     </row>
-    <row r="60" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <v>59</v>
       </c>
@@ -2947,7 +2970,7 @@
       </c>
       <c r="G60" s="12"/>
     </row>
-    <row r="61" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
         <v>60</v>
       </c>
@@ -2964,7 +2987,7 @@
       </c>
       <c r="G61" s="12"/>
     </row>
-    <row r="62" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
         <v>61</v>
       </c>
@@ -2981,7 +3004,7 @@
       </c>
       <c r="G62" s="12"/>
     </row>
-    <row r="63" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <v>62</v>
       </c>
@@ -3015,7 +3038,7 @@
       </c>
       <c r="G64" s="12"/>
     </row>
-    <row r="65" spans="1:7" ht="28.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="28.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="19">
         <v>64</v>
       </c>
@@ -3032,7 +3055,7 @@
       </c>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
         <v>63</v>
       </c>
@@ -3049,7 +3072,7 @@
       </c>
       <c r="G66" s="12"/>
     </row>
-    <row r="67" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
         <v>64</v>
       </c>
@@ -3066,7 +3089,7 @@
       </c>
       <c r="G67" s="12"/>
     </row>
-    <row r="68" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
         <v>65</v>
       </c>
@@ -3083,32 +3106,48 @@
       </c>
       <c r="G68" s="12"/>
     </row>
-    <row r="71" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="25">
+        <v>66</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D69" s="12"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="G69" s="16"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="11"/>
+    </row>
+    <row r="71" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="76" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F67" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:F69" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="5">
       <filters>
-        <filter val="IDA-MPA-001"/>
-        <filter val="IDA-MPA-002"/>
-        <filter val="IDA-MPA-003"/>
-        <filter val="IDA-MPA-004"/>
-        <filter val="IDA-MPA-005"/>
-        <filter val="IDA-MPA-006"/>
-        <filter val="IDA-MPA-007"/>
-        <filter val="IDA-MPA-008"/>
-        <filter val="IDA-MPA-009"/>
-        <filter val="IDA-MPA-010"/>
-        <filter val="IDA-MPA-011"/>
-        <filter val="IDA-MPA-012"/>
-        <filter val="IDA-MPA-013"/>
-        <filter val="IDA-MPA-014"/>
-        <filter val="IDA-MPA-015"/>
+        <filter val="IDA-OTA-001"/>
+        <filter val="IDA-OTA-002"/>
+        <filter val="IDA-OTA-003"/>
+        <filter val="IDA-OTA-004"/>
+        <filter val="IDA-OTA-005"/>
+        <filter val="IDA-OTA-006"/>
+        <filter val="IDA-OTA-007"/>
+        <filter val="IDA-OTA-008"/>
+        <filter val="IDA-OTA-009"/>
+        <filter val="IDA-OTA-010"/>
       </filters>
     </filterColumn>
   </autoFilter>
